--- a/medicine/Enfance/Béatrice_Hammer/Béatrice_Hammer.xlsx
+++ b/medicine/Enfance/Béatrice_Hammer/Béatrice_Hammer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Hammer</t>
+          <t>Béatrice_Hammer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Béatrice Hammer est une écrivaine française, née le 4 février 1963 à Paris. Elle est également cinéaste et sociologue.
 Son premier roman, La Princesse japonaise, a été récompensé par le Prix Goya en 1995.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Hammer</t>
+          <t>Béatrice_Hammer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Béatrice Hammer a une formation de statisticienne, acquise à l'ENSAE, complétée par un diplôme de sociologie à Sciences Po[1]. Elle a effectué sa carrière professionnelle à la Direction des Études et Recherches d'EDF[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Béatrice Hammer a une formation de statisticienne, acquise à l'ENSAE, complétée par un diplôme de sociologie à Sciences Po. Elle a effectué sa carrière professionnelle à la Direction des Études et Recherches d'EDF,.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Hammer</t>
+          <t>Béatrice_Hammer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Camille, nouvelle, in Les Coupons de Magali et autres nouvelles, Sépia, 1994, republié par les éditions de la Combe, 2021, premier prix des Inédits de RFI/ACCT
 La Princesse japonaise, roman, Critérion, 1994. Prix Goya du premier roman, Prix du premier roman de l'Université d'Artois, Prix du festival du premier roman de Chambéry, republié par les éditions du Rouergue, collection DoAdo, 2008, Prix Jean-Félix Paulsen 2009, Prix Tatoulu 2010, republié par les éditions d'Avallon sous le titre Kivousavé, 2021
@@ -554,7 +570,7 @@
 Lou et Lilas, roman, Pétrelle, 2000, republié par les éditions d'Avallon, 2021
 L'Édifiante histoire de Green.com, roman, A Contrario, 2004, republié par les éditions d'Avallon sous le titre Green.com, 2021
 Le Fils de l'océan, roman jeunesse, Rageot, 2005 (collection cascade), 2010 (collection Rageot Romans) Prix Livre Mon Ami 2006, republié par les éditions de la Combe, 2022
-Les Violons de Léna[3], roman, Pocket, 2006 (sous le titre Le Quatuor de Mélodie), republié par les éditions d'Avallon, 2021
+Les Violons de Léna, roman, Pocket, 2006 (sous le titre Le Quatuor de Mélodie), republié par les éditions d'Avallon, 2021
 L'Homme-horloge, nouvelles, Mercure de France, 2006
 Comment j'ai rééduqué mes parents (enfin, surtout ma mère), roman jeunesse, Rageot, collection Rageot Romans, 2006 (sous le titre Comment je suis devenue grande), republié par les éditions de la Combe, 2022
 Ce que je sais d'elle, roman, Arlea, 2006, republié par les éditions d'Avallon, 2021
@@ -582,7 +598,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Hammer</t>
+          <t>Béatrice_Hammer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +616,9 @@
           <t>Traductions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'Atelier d'écriture de David Lodge (avec Armand Eloi), éditions Rivages, 2008</t>
         </is>
@@ -612,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B%C3%A9atrice_Hammer</t>
+          <t>Béatrice_Hammer</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,7 +648,9 @@
           <t>Cinéma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Aurore au fil du temps, 2021 (moyen métrage, 42')</t>
         </is>
